--- a/evaluation/results/hybrid/pca/one_svm/split_1/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/hybrid/pca/one_svm/split_1/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.8701067615658363</v>
+        <v>0.4661921708185053</v>
       </c>
       <c r="C2">
-        <v>0.02127659574468085</v>
+        <v>0.075</v>
       </c>
       <c r="D2">
-        <v>0.03571428571428571</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E2">
-        <v>0.02666666666666667</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="F2">
-        <v>0.03144654088050314</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="G2">
-        <v>0.03480589022757698</v>
+        <v>0.611764705882353</v>
       </c>
       <c r="H2">
-        <v>0.4747859818084538</v>
+        <v>0.6387774210807919</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J2">
-        <v>46</v>
+        <v>296</v>
       </c>
       <c r="K2">
-        <v>488</v>
+        <v>238</v>
       </c>
       <c r="L2">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9475728155339805</v>
+        <v>0.9834710743801653</v>
       </c>
       <c r="C2">
-        <v>0.9138576779026217</v>
+        <v>0.4456928838951311</v>
       </c>
       <c r="D2">
-        <v>0.9304099142040038</v>
+        <v>0.6134020618556701</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.02127659574468085</v>
+        <v>0.075</v>
       </c>
       <c r="C3">
-        <v>0.03571428571428571</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D3">
-        <v>0.02666666666666667</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.8701067615658363</v>
+        <v>0.4661921708185053</v>
       </c>
       <c r="C4">
-        <v>0.8701067615658363</v>
+        <v>0.4661921708185053</v>
       </c>
       <c r="D4">
-        <v>0.8701067615658363</v>
+        <v>0.4661921708185053</v>
       </c>
       <c r="E4">
-        <v>0.8701067615658363</v>
+        <v>0.4661921708185053</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.4844247056393307</v>
+        <v>0.5292355371900826</v>
       </c>
       <c r="C5">
-        <v>0.4747859818084537</v>
+        <v>0.6514178705189941</v>
       </c>
       <c r="D5">
-        <v>0.4785382904353352</v>
+        <v>0.3756665481692144</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9014228259359371</v>
+        <v>0.9382091703185201</v>
       </c>
       <c r="C6">
-        <v>0.8701067615658363</v>
+        <v>0.4661921708185053</v>
       </c>
       <c r="D6">
-        <v>0.885383560234172</v>
+        <v>0.5897131138726781</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>488</v>
+        <v>238</v>
       </c>
       <c r="C2">
-        <v>46</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
